--- a/7/2/2/2/2/Sociedades financieras 2003 a 2021 - Trimestral.xlsx
+++ b/7/2/2/2/2/Sociedades financieras 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>Serie</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -713,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AO74"/>
+  <dimension ref="A1:AO75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9849,52 +9852,52 @@
         <v>113</v>
       </c>
       <c r="B74">
-        <v>4702</v>
+        <v>4670</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>-6406</v>
+        <v>-6558</v>
       </c>
       <c r="E74">
-        <v>-2571</v>
+        <v>-2551</v>
       </c>
       <c r="F74">
-        <v>-3835</v>
+        <v>-4007</v>
       </c>
       <c r="G74">
-        <v>4238</v>
+        <v>4186</v>
       </c>
       <c r="H74">
         <v>1438</v>
       </c>
       <c r="I74">
-        <v>2800</v>
+        <v>2748</v>
       </c>
       <c r="J74">
         <v>-952</v>
       </c>
       <c r="K74">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="L74">
         <v>782</v>
       </c>
       <c r="M74">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="N74">
-        <v>2813</v>
+        <v>2724</v>
       </c>
       <c r="O74">
-        <v>1325</v>
+        <v>1272</v>
       </c>
       <c r="P74">
-        <v>27</v>
+        <v>-10</v>
       </c>
       <c r="Q74">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="R74">
         <v>-89</v>
@@ -9906,13 +9909,13 @@
         <v>-1</v>
       </c>
       <c r="U74">
-        <v>1894</v>
+        <v>2157</v>
       </c>
       <c r="V74">
-        <v>2128</v>
+        <v>2242</v>
       </c>
       <c r="W74">
-        <v>2573</v>
+        <v>2428</v>
       </c>
       <c r="X74">
         <v>-3797</v>
@@ -9924,34 +9927,34 @@
         <v>-3887</v>
       </c>
       <c r="AA74">
-        <v>1887</v>
+        <v>1890</v>
       </c>
       <c r="AB74">
         <v>1918</v>
       </c>
       <c r="AC74">
-        <v>-31</v>
+        <v>-27</v>
       </c>
       <c r="AD74">
-        <v>1074</v>
+        <v>1061</v>
       </c>
       <c r="AE74">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="AF74">
-        <v>-371</v>
+        <v>-384</v>
       </c>
       <c r="AG74">
-        <v>4129</v>
+        <v>4164</v>
       </c>
       <c r="AH74">
-        <v>103</v>
+        <v>136</v>
       </c>
       <c r="AI74">
         <v>-42</v>
       </c>
       <c r="AJ74">
-        <v>4068</v>
+        <v>4069</v>
       </c>
       <c r="AK74">
         <v>-991</v>
@@ -9966,7 +9969,132 @@
         <v>-4</v>
       </c>
       <c r="AO74">
-        <v>231</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:41">
+      <c r="A75" t="s">
+        <v>114</v>
+      </c>
+      <c r="B75">
+        <v>19081</v>
+      </c>
+      <c r="C75">
+        <v>-61</v>
+      </c>
+      <c r="D75">
+        <v>2953</v>
+      </c>
+      <c r="E75">
+        <v>1515</v>
+      </c>
+      <c r="F75">
+        <v>1438</v>
+      </c>
+      <c r="G75">
+        <v>8847</v>
+      </c>
+      <c r="H75">
+        <v>9228</v>
+      </c>
+      <c r="I75">
+        <v>-381</v>
+      </c>
+      <c r="J75">
+        <v>-234</v>
+      </c>
+      <c r="K75">
+        <v>9408</v>
+      </c>
+      <c r="L75">
+        <v>6457</v>
+      </c>
+      <c r="M75">
+        <v>2951</v>
+      </c>
+      <c r="N75">
+        <v>-5009</v>
+      </c>
+      <c r="O75">
+        <v>-1665</v>
+      </c>
+      <c r="P75">
+        <v>-486</v>
+      </c>
+      <c r="Q75">
+        <v>-2859</v>
+      </c>
+      <c r="R75">
+        <v>-77</v>
+      </c>
+      <c r="S75">
+        <v>-8</v>
+      </c>
+      <c r="T75">
+        <v>-8</v>
+      </c>
+      <c r="U75">
+        <v>3261</v>
+      </c>
+      <c r="V75">
+        <v>1229</v>
+      </c>
+      <c r="W75">
+        <v>17853</v>
+      </c>
+      <c r="X75">
+        <v>10931</v>
+      </c>
+      <c r="Y75">
+        <v>10270</v>
+      </c>
+      <c r="Z75">
+        <v>661</v>
+      </c>
+      <c r="AA75">
+        <v>8685</v>
+      </c>
+      <c r="AB75">
+        <v>9245</v>
+      </c>
+      <c r="AC75">
+        <v>-560</v>
+      </c>
+      <c r="AD75">
+        <v>6489</v>
+      </c>
+      <c r="AE75">
+        <v>7540</v>
+      </c>
+      <c r="AF75">
+        <v>-1050</v>
+      </c>
+      <c r="AG75">
+        <v>-585</v>
+      </c>
+      <c r="AH75">
+        <v>315</v>
+      </c>
+      <c r="AI75">
+        <v>-372</v>
+      </c>
+      <c r="AJ75">
+        <v>-527</v>
+      </c>
+      <c r="AK75">
+        <v>-8424</v>
+      </c>
+      <c r="AL75">
+        <v>-560</v>
+      </c>
+      <c r="AM75">
+        <v>-520</v>
+      </c>
+      <c r="AN75">
+        <v>-40</v>
+      </c>
+      <c r="AO75">
+        <v>1316</v>
       </c>
     </row>
   </sheetData>
